--- a/xlsx/country_comparison/transfer_how_mean.xlsx
+++ b/xlsx/country_comparison/transfer_how_mean.xlsx
@@ -395,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.230994152046784</v>
+        <v>0.231692677070828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310195227765727</v>
+        <v>0.352607709750567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0.322368421052632</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.131578947368421</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.112798264642082</v>
+        <v>0.158730158730159</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.263157894736842</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.277777777777778</v>
+        <v>-0.157262905162065</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.509761388286334</v>
+        <v>-0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.153333333333333</v>
+        <v>-0.409210526315789</v>
       </c>
     </row>
     <row r="5">
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.336225596529284</v>
+        <v>-0.320861678004535</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0833333333333333</v>
+        <v>-0.263157894736842</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.298245614035088</v>
+        <v>0.271308523409364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.017353579175705</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.266666666666667</v>
+        <v>0.0263157894736842</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.517543859649123</v>
+        <v>0.539015606242497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.379609544468547</v>
+        <v>0.370748299319728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.756666666666667</v>
+        <v>0.453947368421053</v>
       </c>
     </row>
     <row r="8">
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0994152046783626</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.180043383947939</v>
+        <v>-0.1859410430839</v>
       </c>
       <c r="D8" t="n">
-        <v>0.243333333333333</v>
+        <v>-0.00263157894736842</v>
       </c>
     </row>
   </sheetData>
